--- a/Jupyter/simulationID/cim_0324_0620/data/bldg/before_209_8.xlsx
+++ b/Jupyter/simulationID/cim_0324_0620/data/bldg/before_209_8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="17">
   <si>
     <t>appUnits</t>
   </si>
@@ -49,10 +49,22 @@
     <t>status</t>
   </si>
   <si>
+    <t>renewd</t>
+  </si>
+  <si>
+    <t>PlanID</t>
+  </si>
+  <si>
+    <t>iteration</t>
+  </si>
+  <si>
     <t>209_8</t>
   </si>
   <si>
     <t>Old Building</t>
+  </si>
+  <si>
+    <t>before</t>
   </si>
 </sst>
 </file>
@@ -410,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +462,17 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -462,7 +483,7 @@
         <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>19890.83333333334</v>
@@ -486,10 +507,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <v>20120894</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -500,7 +530,7 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>19890.83333333334</v>
@@ -524,10 +554,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3">
+        <v>20120894</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -538,7 +577,7 @@
         <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>19890.83333333334</v>
@@ -562,10 +601,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>20120894</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -576,7 +624,7 @@
         <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>19890.83333333334</v>
@@ -600,10 +648,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>20120894</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -614,7 +671,7 @@
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>19890.83333333334</v>
@@ -638,10 +695,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>20120894</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -652,7 +718,7 @@
         <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>19890.83333333334</v>
@@ -676,10 +742,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7">
+        <v>20120894</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -690,7 +765,7 @@
         <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>19890.83333333334</v>
@@ -714,10 +789,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>20120894</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -728,7 +812,7 @@
         <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>19890.83333333334</v>
@@ -752,10 +836,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>20120894</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -766,7 +859,7 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>19890.83333333334</v>
@@ -790,10 +883,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>20120894</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -804,7 +906,7 @@
         <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>19890.83333333334</v>
@@ -828,10 +930,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <v>20120894</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -842,7 +953,7 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>19890.83333333334</v>
@@ -866,10 +977,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>20120894</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -880,7 +1000,7 @@
         <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>19890.83333333334</v>
@@ -904,10 +1024,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13">
+        <v>20120894</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -918,7 +1047,7 @@
         <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>19890.83333333334</v>
@@ -942,10 +1071,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14">
+        <v>20120894</v>
+      </c>
+      <c r="O14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -956,7 +1094,7 @@
         <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>19890.83333333334</v>
@@ -980,10 +1118,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <v>20120894</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -994,7 +1141,7 @@
         <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>19890.83333333334</v>
@@ -1018,10 +1165,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16">
+        <v>20120894</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1032,7 +1188,7 @@
         <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>19890.83333333334</v>
@@ -1056,10 +1212,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>20120894</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1070,7 +1235,7 @@
         <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>19890.83333333334</v>
@@ -1094,10 +1259,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <v>20120894</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1108,7 +1282,7 @@
         <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>19890.83333333334</v>
@@ -1132,10 +1306,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19">
+        <v>20120894</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1146,7 +1329,7 @@
         <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>19890.83333333334</v>
@@ -1170,10 +1353,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20">
+        <v>20120894</v>
+      </c>
+      <c r="O20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1184,7 +1376,7 @@
         <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>19890.83333333334</v>
@@ -1208,10 +1400,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <v>20120894</v>
+      </c>
+      <c r="O21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1222,7 +1423,7 @@
         <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>19890.83333333334</v>
@@ -1246,10 +1447,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22">
+        <v>20120894</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1260,7 +1470,7 @@
         <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>19890.83333333334</v>
@@ -1284,10 +1494,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23">
+        <v>20120894</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1298,7 +1517,7 @@
         <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>19890.83333333334</v>
@@ -1322,10 +1541,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M24" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24">
+        <v>20120894</v>
+      </c>
+      <c r="O24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1336,7 +1564,7 @@
         <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>19890.83333333334</v>
@@ -1360,10 +1588,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25">
+        <v>20120894</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1374,7 +1611,7 @@
         <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>19890.83333333334</v>
@@ -1398,10 +1635,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26">
+        <v>20120894</v>
+      </c>
+      <c r="O26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1412,7 +1658,7 @@
         <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>19890.83333333334</v>
@@ -1436,10 +1682,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27">
+        <v>20120894</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1450,7 +1705,7 @@
         <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>19890.83333333334</v>
@@ -1474,10 +1729,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28">
+        <v>20120894</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1488,7 +1752,7 @@
         <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>19890.83333333334</v>
@@ -1512,10 +1776,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29">
+        <v>20120894</v>
+      </c>
+      <c r="O29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1526,7 +1799,7 @@
         <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>19890.83333333334</v>
@@ -1550,10 +1823,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30">
+        <v>20120894</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1564,7 +1846,7 @@
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>19890.83333333334</v>
@@ -1588,10 +1870,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M31" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31">
+        <v>20120894</v>
+      </c>
+      <c r="O31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1602,7 +1893,7 @@
         <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>19890.83333333334</v>
@@ -1626,10 +1917,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32">
+        <v>20120894</v>
+      </c>
+      <c r="O32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1640,7 +1940,7 @@
         <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>19890.83333333334</v>
@@ -1664,10 +1964,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M33" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33">
+        <v>20120894</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1678,7 +1987,7 @@
         <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>19890.83333333334</v>
@@ -1702,10 +2011,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34">
+        <v>20120894</v>
+      </c>
+      <c r="O34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1716,7 +2034,7 @@
         <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>19890.83333333334</v>
@@ -1740,10 +2058,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M35" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35">
+        <v>20120894</v>
+      </c>
+      <c r="O35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1754,7 +2081,7 @@
         <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>19890.83333333334</v>
@@ -1778,10 +2105,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36">
+        <v>20120894</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1792,7 +2128,7 @@
         <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>19890.83333333334</v>
@@ -1816,10 +2152,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M37" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37">
+        <v>20120894</v>
+      </c>
+      <c r="O37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1830,7 +2175,7 @@
         <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>19890.83333333334</v>
@@ -1854,10 +2199,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M38" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38">
+        <v>20120894</v>
+      </c>
+      <c r="O38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1868,7 +2222,7 @@
         <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E39">
         <v>19890.83333333334</v>
@@ -1892,10 +2246,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M39" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39">
+        <v>20120894</v>
+      </c>
+      <c r="O39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1906,7 +2269,7 @@
         <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E40">
         <v>19890.83333333334</v>
@@ -1930,10 +2293,19 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M40" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40">
+        <v>20120894</v>
+      </c>
+      <c r="O40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1944,7 +2316,7 @@
         <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>19890.83333333334</v>
@@ -1968,7 +2340,16 @@
         <v>507.6850000000001</v>
       </c>
       <c r="L41" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="M41" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41">
+        <v>20120894</v>
+      </c>
+      <c r="O41">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
